--- a/report.xlsx
+++ b/report.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Аналитик</t>
+          <t>Средняя зарплата - аналитик</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Аналитик</t>
+          <t>Количество вакансий - аналитик</t>
         </is>
       </c>
     </row>
@@ -486,13 +486,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40641</v>
+        <v>52973</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -503,13 +503,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48428</v>
+        <v>57596</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>196</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
@@ -520,13 +520,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48109</v>
+        <v>56547</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>171</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49577</v>
+        <v>54481</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>328</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>52794</v>
+        <v>65403</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>418</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>58341</v>
+        <v>64927</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>374</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8">
@@ -588,13 +588,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>57004</v>
+        <v>67367</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>420</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9">
@@ -605,13 +605,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58768</v>
+        <v>65779</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>504</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>53326</v>
+        <v>70035</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11">
@@ -639,13 +639,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>54236</v>
+        <v>64998</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>911</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>56558</v>
+        <v>71940</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1201</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13">
@@ -673,13 +673,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>61080</v>
+        <v>77927</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="14">
@@ -690,13 +690,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>71288</v>
+        <v>88819</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1482</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="15">
@@ -707,13 +707,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>80145</v>
+        <v>98472</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1349</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="16">
@@ -724,13 +724,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>87473</v>
+        <v>105415</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>805</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="17">
@@ -741,13 +741,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91340</v>
+        <v>117742</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>305</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - аналитик</t>
+          <t>Средняя зарплата - Аналитик</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - аналитик</t>
+          <t>Количество вакансий - Аналитик</t>
         </is>
       </c>
     </row>
@@ -486,13 +486,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>52973</v>
+        <v>40641</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -503,13 +503,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>57596</v>
+        <v>48428</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>354</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -520,13 +520,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>56547</v>
+        <v>48109</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>278</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>54481</v>
+        <v>49577</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>495</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>65403</v>
+        <v>52794</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>728</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>64927</v>
+        <v>58341</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>615</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -588,13 +588,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>67367</v>
+        <v>57004</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>629</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -605,13 +605,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>65779</v>
+        <v>58768</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>794</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>70035</v>
+        <v>53326</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11">
@@ -639,13 +639,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>64998</v>
+        <v>54236</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>960</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>71940</v>
+        <v>56558</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1134</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13">
@@ -673,13 +673,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>77927</v>
+        <v>61080</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14">
@@ -690,13 +690,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>88819</v>
+        <v>71288</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1830</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15">
@@ -707,13 +707,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>98472</v>
+        <v>80145</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1830</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16">
@@ -724,13 +724,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>105415</v>
+        <v>87473</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1059</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17">
@@ -741,13 +741,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>117742</v>
+        <v>91340</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>415</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
